--- a/biology/Médecine/1294_en_santé_et_médecine/1294_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1294_en_santé_et_médecine/1294_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1294_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1294_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1294 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1294_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1294_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation de l'hôpital Saint-Jacques de Grenade, à Larra[2].
-Jean de la Tonnelle, chevalier, échange quelques terres avec la commune de Montdidier, dans le Santerre, à charge pour elle de recevoir dans sa maladrerie les lépreux de Rollot dont il est le seigneur[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation de l'hôpital Saint-Jacques de Grenade, à Larra.
+Jean de la Tonnelle, chevalier, échange quelques terres avec la commune de Montdidier, dans le Santerre, à charge pour elle de recevoir dans sa maladrerie les lépreux de Rollot dont il est le seigneur.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1294_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1294_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sous le titre de Cantica, Armengaud Blaise (1264-1312) donne la traduction latine de l'Al-Urjūza fī al-tibb (« Poème de la médecine ») d'Avicenne (980-1037) avec les annotations d'Averroès (1126-1198[4],[5]).
-Héthoum de Korikos, prince arménien, devenu moine et historien, commande un recueil médical « connu sous le nom de Traité Gagik-Héthoumian car il s'ouvre sur une copie, la plus ancienne conservée, de la traduction arménienne d’un traité [d'Avicenne] effectuée à la fin du Xe siècle sous le roi Gagik Ier[6] ».
-Entre 1294 et 1303 : sous le titre de Regimen ad regem hyspanie[7], Jean de Capoue donne une version latine du Fi tadbir al-sihhah de Maïmonide[8], traité de diététique qu'Ibn Tibbon (1120-1190) avait déjà traduit d'arabe en hébreu.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sous le titre de Cantica, Armengaud Blaise (1264-1312) donne la traduction latine de l'Al-Urjūza fī al-tibb (« Poème de la médecine ») d'Avicenne (980-1037) avec les annotations d'Averroès (1126-1198,).
+Héthoum de Korikos, prince arménien, devenu moine et historien, commande un recueil médical « connu sous le nom de Traité Gagik-Héthoumian car il s'ouvre sur une copie, la plus ancienne conservée, de la traduction arménienne d’un traité [d'Avicenne] effectuée à la fin du Xe siècle sous le roi Gagik Ier ».
+Entre 1294 et 1303 : sous le titre de Regimen ad regem hyspanie, Jean de Capoue donne une version latine du Fi tadbir al-sihhah de Maïmonide, traité de diététique qu'Ibn Tibbon (1120-1190) avait déjà traduit d'arabe en hébreu.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1294_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1294_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +590,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. à Montpellier le médecin Ermengaud Lobastier et les barbiers Raphin, Pierre de Rocroson, Étienne de Aeris et Jean Constantin[8].
-Fl. Adam de La Bassée, chirurgien à Lille, en Flandre[9]
-Fl. Giraud, barbier[9].
-Fl. Jean Deroria, « chirurgien, cité dans une charte du prieuré de Chamonix, dans le comté de Genève[9] ».
-1240-avant 1294 : fl. Cardinalis, professeur  de médecine à Montpellier, auteur de plusieurs ouvrages médicaux, tous inédits[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. à Montpellier le médecin Ermengaud Lobastier et les barbiers Raphin, Pierre de Rocroson, Étienne de Aeris et Jean Constantin.
+Fl. Adam de La Bassée, chirurgien à Lille, en Flandre
+Fl. Giraud, barbier.
+Fl. Jean Deroria, « chirurgien, cité dans une charte du prieuré de Chamonix, dans le comté de Genève ».
+1240-avant 1294 : fl. Cardinalis, professeur  de médecine à Montpellier, auteur de plusieurs ouvrages médicaux, tous inédits.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1294_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1294_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,10 +626,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ugo (né à une date inconnue), médecin à Bologne, originaire d'Angleterre, lègue ses neuf livres à son fils « avec une interdiction de les vendre avant vingt ans[11] ».
-Roger Bacon (né en 1214), philosophe, savant, alchimiste, polygraphe anglais, auteur d'un traité sur les erreurs médicales (De erroribus medicorum[12]).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ugo (né à une date inconnue), médecin à Bologne, originaire d'Angleterre, lègue ses neuf livres à son fils « avec une interdiction de les vendre avant vingt ans ».
+Roger Bacon (né en 1214), philosophe, savant, alchimiste, polygraphe anglais, auteur d'un traité sur les erreurs médicales (De erroribus medicorum).</t>
         </is>
       </c>
     </row>
